--- a/Project5099_K. M. Wefferling(2013).xlsx
+++ b/Project5099_K. M. Wefferling(2013).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B32B8D9-71B9-4143-B417-D398CAA7368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0662494-E51E-48CF-9913-FA6FD5D31ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{28D8B22D-54DF-6344-835A-EC7ACC6747D3}"/>
+    <workbookView xWindow="255" yWindow="2730" windowWidth="15945" windowHeight="18375" xr2:uid="{28D8B22D-54DF-6344-835A-EC7ACC6747D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Project5099" sheetId="1" r:id="rId1"/>
@@ -173,55 +173,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2168</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67347653-5422-766D-F193-F6246EF84C5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7543800" y="313267"/>
-          <a:ext cx="10744200" cy="6682368"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,14 +498,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.1640625" customWidth="1"/>
+    <col min="1" max="1" width="83.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -576,7 +527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -587,7 +538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -598,7 +549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -609,7 +560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -620,7 +571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -631,7 +582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -642,7 +593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -650,7 +601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -661,7 +612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -672,7 +623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -683,7 +634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -694,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -705,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -716,7 +667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -730,6 +681,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>